--- a/docs/reference/example.xlsx
+++ b/docs/reference/example.xlsx
@@ -15,7 +15,183 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="264">
+  <si>
+    <t>_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cyl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qsec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4 Wag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Datsun 710</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet 4 Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet Sportabout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valiant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duster 360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 240D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SLC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cadillac Fleetwood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lincoln Continental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chrysler Imperial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat 128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honda Civic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corona</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dodge Challenger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMC Javelin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camaro Z28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pontiac Firebird</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat X1-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Porsche 914-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lotus Europa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ford Pantera L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ferrari Dino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maserati Bora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volvo 142E</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>_row</t>
     <phoneticPr fontId="1"/>
@@ -1242,45 +1418,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="E1" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="G1" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="H1" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="I1" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="J1" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="K1" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="L1" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1318,7 +1494,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1356,7 +1532,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1394,7 +1570,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1432,7 +1608,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1470,7 +1646,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1508,7 +1684,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1546,7 +1722,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1584,7 +1760,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1622,7 +1798,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1660,7 +1836,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1698,7 +1874,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1736,7 +1912,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1774,7 +1950,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1812,7 +1988,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1850,7 +2026,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1888,7 +2064,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1926,7 +2102,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1964,7 +2140,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2002,7 +2178,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2040,7 +2216,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2078,7 +2254,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2116,7 +2292,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2154,7 +2330,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2192,7 +2368,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2230,7 +2406,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2268,7 +2444,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2306,7 +2482,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2344,7 +2520,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2382,7 +2558,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2420,7 +2596,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2458,7 +2634,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="B33">
         <v>1</v>

--- a/docs/reference/example.xlsx
+++ b/docs/reference/example.xlsx
@@ -15,7 +15,1239 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="616">
+  <si>
+    <t>_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cyl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qsec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4 Wag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Datsun 710</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet 4 Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet Sportabout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valiant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duster 360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 240D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SLC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cadillac Fleetwood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lincoln Continental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chrysler Imperial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat 128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honda Civic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corona</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dodge Challenger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMC Javelin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camaro Z28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pontiac Firebird</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat X1-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Porsche 914-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lotus Europa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ford Pantera L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ferrari Dino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maserati Bora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volvo 142E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cyl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qsec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4 Wag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Datsun 710</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet 4 Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet Sportabout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valiant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duster 360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 240D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SLC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cadillac Fleetwood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lincoln Continental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chrysler Imperial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat 128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honda Civic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corona</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dodge Challenger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMC Javelin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camaro Z28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pontiac Firebird</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat X1-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Porsche 914-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lotus Europa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ford Pantera L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ferrari Dino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maserati Bora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volvo 142E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cyl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qsec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4 Wag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Datsun 710</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet 4 Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet Sportabout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valiant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duster 360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 240D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SLC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cadillac Fleetwood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lincoln Continental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chrysler Imperial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat 128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honda Civic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corona</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dodge Challenger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMC Javelin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camaro Z28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pontiac Firebird</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat X1-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Porsche 914-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lotus Europa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ford Pantera L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ferrari Dino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maserati Bora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volvo 142E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cyl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qsec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4 Wag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Datsun 710</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet 4 Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet Sportabout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valiant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duster 360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 240D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SLC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cadillac Fleetwood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lincoln Continental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chrysler Imperial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat 128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honda Civic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corona</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dodge Challenger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMC Javelin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camaro Z28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pontiac Firebird</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat X1-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Porsche 914-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lotus Europa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ford Pantera L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ferrari Dino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maserati Bora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volvo 142E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cyl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qsec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4 Wag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Datsun 710</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet 4 Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet Sportabout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valiant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duster 360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 240D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SLC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cadillac Fleetwood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lincoln Continental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chrysler Imperial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat 128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honda Civic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corona</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dodge Challenger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMC Javelin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camaro Z28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pontiac Firebird</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat X1-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Porsche 914-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lotus Europa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ford Pantera L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ferrari Dino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maserati Bora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volvo 142E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cyl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qsec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4 Wag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Datsun 710</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet 4 Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet Sportabout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valiant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duster 360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 240D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SLC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cadillac Fleetwood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lincoln Continental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chrysler Imperial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat 128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honda Civic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corona</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dodge Challenger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMC Javelin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camaro Z28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pontiac Firebird</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat X1-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Porsche 914-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lotus Europa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ford Pantera L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ferrari Dino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maserati Bora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volvo 142E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cyl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qsec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4 Wag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Datsun 710</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet 4 Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet Sportabout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valiant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duster 360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 240D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SLC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cadillac Fleetwood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lincoln Continental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chrysler Imperial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat 128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honda Civic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corona</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dodge Challenger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMC Javelin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camaro Z28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pontiac Firebird</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat X1-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Porsche 914-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lotus Europa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ford Pantera L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ferrari Dino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maserati Bora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volvo 142E</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>_row</t>
     <phoneticPr fontId="1"/>
@@ -1594,45 +2826,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>572</v>
       </c>
       <c r="B1" t="s">
-        <v>265</v>
+        <v>573</v>
       </c>
       <c r="C1" t="s">
-        <v>266</v>
+        <v>574</v>
       </c>
       <c r="D1" t="s">
-        <v>267</v>
+        <v>575</v>
       </c>
       <c r="E1" t="s">
-        <v>268</v>
+        <v>576</v>
       </c>
       <c r="F1" t="s">
-        <v>269</v>
+        <v>577</v>
       </c>
       <c r="G1" t="s">
-        <v>270</v>
+        <v>578</v>
       </c>
       <c r="H1" t="s">
-        <v>271</v>
+        <v>579</v>
       </c>
       <c r="I1" t="s">
-        <v>272</v>
+        <v>580</v>
       </c>
       <c r="J1" t="s">
-        <v>273</v>
+        <v>581</v>
       </c>
       <c r="K1" t="s">
-        <v>274</v>
+        <v>582</v>
       </c>
       <c r="L1" t="s">
-        <v>275</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>584</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1670,7 +2902,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>585</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1708,7 +2940,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>586</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1746,7 +2978,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>587</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1784,7 +3016,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>588</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1822,7 +3054,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>589</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1860,7 +3092,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>590</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1898,7 +3130,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>591</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1936,7 +3168,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>592</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1974,7 +3206,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>593</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2012,7 +3244,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>594</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2050,7 +3282,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>595</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2088,7 +3320,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>288</v>
+        <v>596</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2126,7 +3358,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>289</v>
+        <v>597</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2164,7 +3396,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>290</v>
+        <v>598</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2202,7 +3434,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>291</v>
+        <v>599</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2240,7 +3472,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>292</v>
+        <v>600</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2278,7 +3510,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>293</v>
+        <v>601</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2316,7 +3548,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>294</v>
+        <v>602</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2354,7 +3586,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>295</v>
+        <v>603</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2392,7 +3624,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>296</v>
+        <v>604</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2430,7 +3662,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>297</v>
+        <v>605</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2468,7 +3700,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>298</v>
+        <v>606</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2506,7 +3738,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>299</v>
+        <v>607</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2544,7 +3776,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>300</v>
+        <v>608</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2582,7 +3814,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>301</v>
+        <v>609</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2620,7 +3852,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>302</v>
+        <v>610</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2658,7 +3890,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>303</v>
+        <v>611</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2696,7 +3928,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>304</v>
+        <v>612</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2734,7 +3966,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>305</v>
+        <v>613</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2772,7 +4004,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>306</v>
+        <v>614</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2810,7 +4042,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>307</v>
+        <v>615</v>
       </c>
       <c r="B33">
         <v>1</v>

--- a/docs/reference/example.xlsx
+++ b/docs/reference/example.xlsx
@@ -15,7 +15,359 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="704">
+  <si>
+    <t>_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cyl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qsec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4 Wag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Datsun 710</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet 4 Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet Sportabout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valiant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duster 360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 240D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SLC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cadillac Fleetwood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lincoln Continental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chrysler Imperial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat 128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honda Civic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corona</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dodge Challenger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMC Javelin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camaro Z28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pontiac Firebird</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat X1-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Porsche 914-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lotus Europa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ford Pantera L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ferrari Dino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maserati Bora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volvo 142E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cyl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qsec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4 Wag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Datsun 710</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet 4 Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet Sportabout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valiant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duster 360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 240D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SLC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cadillac Fleetwood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lincoln Continental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chrysler Imperial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat 128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honda Civic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corona</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dodge Challenger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMC Javelin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camaro Z28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pontiac Firebird</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat X1-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Porsche 914-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lotus Europa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ford Pantera L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ferrari Dino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maserati Bora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volvo 142E</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>_row</t>
     <phoneticPr fontId="1"/>
@@ -2826,45 +3178,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>572</v>
+        <v>660</v>
       </c>
       <c r="B1" t="s">
-        <v>573</v>
+        <v>661</v>
       </c>
       <c r="C1" t="s">
-        <v>574</v>
+        <v>662</v>
       </c>
       <c r="D1" t="s">
-        <v>575</v>
+        <v>663</v>
       </c>
       <c r="E1" t="s">
-        <v>576</v>
+        <v>664</v>
       </c>
       <c r="F1" t="s">
-        <v>577</v>
+        <v>665</v>
       </c>
       <c r="G1" t="s">
-        <v>578</v>
+        <v>666</v>
       </c>
       <c r="H1" t="s">
-        <v>579</v>
+        <v>667</v>
       </c>
       <c r="I1" t="s">
-        <v>580</v>
+        <v>668</v>
       </c>
       <c r="J1" t="s">
-        <v>581</v>
+        <v>669</v>
       </c>
       <c r="K1" t="s">
-        <v>582</v>
+        <v>670</v>
       </c>
       <c r="L1" t="s">
-        <v>583</v>
+        <v>671</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>584</v>
+        <v>672</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2902,7 +3254,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>585</v>
+        <v>673</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2940,7 +3292,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>586</v>
+        <v>674</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2978,7 +3330,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>587</v>
+        <v>675</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3016,7 +3368,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>588</v>
+        <v>676</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3054,7 +3406,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>589</v>
+        <v>677</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3092,7 +3444,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>590</v>
+        <v>678</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3130,7 +3482,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>591</v>
+        <v>679</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3168,7 +3520,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>592</v>
+        <v>680</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3206,7 +3558,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>593</v>
+        <v>681</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3244,7 +3596,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>594</v>
+        <v>682</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3282,7 +3634,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>595</v>
+        <v>683</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3320,7 +3672,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>596</v>
+        <v>684</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3358,7 +3710,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>597</v>
+        <v>685</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3396,7 +3748,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>598</v>
+        <v>686</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3434,7 +3786,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>599</v>
+        <v>687</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3472,7 +3824,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>600</v>
+        <v>688</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3510,7 +3862,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>601</v>
+        <v>689</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3548,7 +3900,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>602</v>
+        <v>690</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3586,7 +3938,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>603</v>
+        <v>691</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3624,7 +3976,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>604</v>
+        <v>692</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3662,7 +4014,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>605</v>
+        <v>693</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3700,7 +4052,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>606</v>
+        <v>694</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3738,7 +4090,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>607</v>
+        <v>695</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3776,7 +4128,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>608</v>
+        <v>696</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3814,7 +4166,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>609</v>
+        <v>697</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3852,7 +4204,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>610</v>
+        <v>698</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3890,7 +4242,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>611</v>
+        <v>699</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3928,7 +4280,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>612</v>
+        <v>700</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3966,7 +4318,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>613</v>
+        <v>701</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4004,7 +4356,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>614</v>
+        <v>702</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4042,7 +4394,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>615</v>
+        <v>703</v>
       </c>
       <c r="B33">
         <v>1</v>

--- a/docs/reference/example.xlsx
+++ b/docs/reference/example.xlsx
@@ -15,7 +15,183 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="748">
+  <si>
+    <t>_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cyl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qsec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4 Wag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Datsun 710</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet 4 Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet Sportabout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valiant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duster 360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 240D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SLC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cadillac Fleetwood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lincoln Continental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chrysler Imperial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat 128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honda Civic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corona</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dodge Challenger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMC Javelin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camaro Z28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pontiac Firebird</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat X1-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Porsche 914-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lotus Europa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ford Pantera L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ferrari Dino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maserati Bora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volvo 142E</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>_row</t>
     <phoneticPr fontId="1"/>
@@ -3178,45 +3354,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>660</v>
+        <v>704</v>
       </c>
       <c r="B1" t="s">
-        <v>661</v>
+        <v>705</v>
       </c>
       <c r="C1" t="s">
-        <v>662</v>
+        <v>706</v>
       </c>
       <c r="D1" t="s">
-        <v>663</v>
+        <v>707</v>
       </c>
       <c r="E1" t="s">
-        <v>664</v>
+        <v>708</v>
       </c>
       <c r="F1" t="s">
-        <v>665</v>
+        <v>709</v>
       </c>
       <c r="G1" t="s">
-        <v>666</v>
+        <v>710</v>
       </c>
       <c r="H1" t="s">
-        <v>667</v>
+        <v>711</v>
       </c>
       <c r="I1" t="s">
-        <v>668</v>
+        <v>712</v>
       </c>
       <c r="J1" t="s">
-        <v>669</v>
+        <v>713</v>
       </c>
       <c r="K1" t="s">
-        <v>670</v>
+        <v>714</v>
       </c>
       <c r="L1" t="s">
-        <v>671</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>672</v>
+        <v>716</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3254,7 +3430,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>673</v>
+        <v>717</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3292,7 +3468,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>674</v>
+        <v>718</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3330,7 +3506,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>675</v>
+        <v>719</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3368,7 +3544,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>676</v>
+        <v>720</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3406,7 +3582,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>677</v>
+        <v>721</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3444,7 +3620,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>678</v>
+        <v>722</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3482,7 +3658,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>679</v>
+        <v>723</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3520,7 +3696,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>680</v>
+        <v>724</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3558,7 +3734,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>681</v>
+        <v>725</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3596,7 +3772,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>682</v>
+        <v>726</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3634,7 +3810,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>683</v>
+        <v>727</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3672,7 +3848,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>684</v>
+        <v>728</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3710,7 +3886,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>685</v>
+        <v>729</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3748,7 +3924,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>686</v>
+        <v>730</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3786,7 +3962,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>687</v>
+        <v>731</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3824,7 +4000,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>688</v>
+        <v>732</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3862,7 +4038,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>689</v>
+        <v>733</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3900,7 +4076,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>690</v>
+        <v>734</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3938,7 +4114,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>691</v>
+        <v>735</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3976,7 +4152,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>692</v>
+        <v>736</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4014,7 +4190,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>693</v>
+        <v>737</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4052,7 +4228,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>694</v>
+        <v>738</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4090,7 +4266,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>695</v>
+        <v>739</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4128,7 +4304,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>696</v>
+        <v>740</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4166,7 +4342,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>697</v>
+        <v>741</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4204,7 +4380,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>698</v>
+        <v>742</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4242,7 +4418,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>699</v>
+        <v>743</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4280,7 +4456,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>700</v>
+        <v>744</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4318,7 +4494,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>701</v>
+        <v>745</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4356,7 +4532,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>702</v>
+        <v>746</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4394,7 +4570,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>703</v>
+        <v>747</v>
       </c>
       <c r="B33">
         <v>1</v>

--- a/docs/reference/example.xlsx
+++ b/docs/reference/example.xlsx
@@ -15,7 +15,183 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="792">
+  <si>
+    <t>_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cyl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qsec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4 Wag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Datsun 710</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet 4 Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet Sportabout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valiant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duster 360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 240D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SLC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cadillac Fleetwood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lincoln Continental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chrysler Imperial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat 128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honda Civic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corona</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dodge Challenger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMC Javelin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camaro Z28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pontiac Firebird</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat X1-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Porsche 914-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lotus Europa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ford Pantera L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ferrari Dino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maserati Bora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volvo 142E</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>_row</t>
     <phoneticPr fontId="1"/>
@@ -3354,45 +3530,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>704</v>
+        <v>748</v>
       </c>
       <c r="B1" t="s">
-        <v>705</v>
+        <v>749</v>
       </c>
       <c r="C1" t="s">
-        <v>706</v>
+        <v>750</v>
       </c>
       <c r="D1" t="s">
-        <v>707</v>
+        <v>751</v>
       </c>
       <c r="E1" t="s">
-        <v>708</v>
+        <v>752</v>
       </c>
       <c r="F1" t="s">
-        <v>709</v>
+        <v>753</v>
       </c>
       <c r="G1" t="s">
-        <v>710</v>
+        <v>754</v>
       </c>
       <c r="H1" t="s">
-        <v>711</v>
+        <v>755</v>
       </c>
       <c r="I1" t="s">
-        <v>712</v>
+        <v>756</v>
       </c>
       <c r="J1" t="s">
-        <v>713</v>
+        <v>757</v>
       </c>
       <c r="K1" t="s">
-        <v>714</v>
+        <v>758</v>
       </c>
       <c r="L1" t="s">
-        <v>715</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>716</v>
+        <v>760</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3430,7 +3606,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>717</v>
+        <v>761</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3468,7 +3644,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>718</v>
+        <v>762</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3506,7 +3682,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>719</v>
+        <v>763</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3544,7 +3720,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>720</v>
+        <v>764</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3582,7 +3758,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>721</v>
+        <v>765</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3620,7 +3796,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>722</v>
+        <v>766</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3658,7 +3834,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>723</v>
+        <v>767</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3696,7 +3872,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>724</v>
+        <v>768</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3734,7 +3910,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>725</v>
+        <v>769</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3772,7 +3948,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>726</v>
+        <v>770</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3810,7 +3986,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>727</v>
+        <v>771</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3848,7 +4024,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>728</v>
+        <v>772</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3886,7 +4062,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>729</v>
+        <v>773</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3924,7 +4100,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>730</v>
+        <v>774</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3962,7 +4138,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>731</v>
+        <v>775</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4000,7 +4176,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>732</v>
+        <v>776</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4038,7 +4214,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>733</v>
+        <v>777</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4076,7 +4252,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>734</v>
+        <v>778</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -4114,7 +4290,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>735</v>
+        <v>779</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4152,7 +4328,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>736</v>
+        <v>780</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4190,7 +4366,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>737</v>
+        <v>781</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4228,7 +4404,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>738</v>
+        <v>782</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4266,7 +4442,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>739</v>
+        <v>783</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4304,7 +4480,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>740</v>
+        <v>784</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4342,7 +4518,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>741</v>
+        <v>785</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4380,7 +4556,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>742</v>
+        <v>786</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4418,7 +4594,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>743</v>
+        <v>787</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4456,7 +4632,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>744</v>
+        <v>788</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4494,7 +4670,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>745</v>
+        <v>789</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4532,7 +4708,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>746</v>
+        <v>790</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4570,7 +4746,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>747</v>
+        <v>791</v>
       </c>
       <c r="B33">
         <v>1</v>

--- a/docs/reference/example.xlsx
+++ b/docs/reference/example.xlsx
@@ -15,7 +15,359 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="880">
+  <si>
+    <t>_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cyl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qsec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4 Wag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Datsun 710</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet 4 Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet Sportabout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valiant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duster 360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 240D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SLC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cadillac Fleetwood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lincoln Continental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chrysler Imperial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat 128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honda Civic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corona</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dodge Challenger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMC Javelin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camaro Z28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pontiac Firebird</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat X1-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Porsche 914-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lotus Europa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ford Pantera L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ferrari Dino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maserati Bora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volvo 142E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cyl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qsec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4 Wag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Datsun 710</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet 4 Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet Sportabout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valiant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duster 360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 240D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SLC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cadillac Fleetwood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lincoln Continental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chrysler Imperial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat 128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honda Civic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corona</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dodge Challenger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMC Javelin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camaro Z28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pontiac Firebird</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat X1-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Porsche 914-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lotus Europa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ford Pantera L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ferrari Dino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maserati Bora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volvo 142E</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>_row</t>
     <phoneticPr fontId="1"/>
@@ -3350,20 +3702,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -3373,20 +3725,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="130000"/>
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
+                <a:satMod val="130000"/>
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:satMod val="135000"/>
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -3397,8 +3749,8 @@
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
+              <a:satMod val="105000"/>
               <a:shade val="95000"/>
-              <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -3464,46 +3816,40 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+                <a:shade val="99000"/>
                 <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:satMod val="255000"/>
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:satMod val="200000"/>
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -3530,45 +3876,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>748</v>
+        <v>836</v>
       </c>
       <c r="B1" t="s">
-        <v>749</v>
+        <v>837</v>
       </c>
       <c r="C1" t="s">
-        <v>750</v>
+        <v>838</v>
       </c>
       <c r="D1" t="s">
-        <v>751</v>
+        <v>839</v>
       </c>
       <c r="E1" t="s">
-        <v>752</v>
+        <v>840</v>
       </c>
       <c r="F1" t="s">
-        <v>753</v>
+        <v>841</v>
       </c>
       <c r="G1" t="s">
-        <v>754</v>
+        <v>842</v>
       </c>
       <c r="H1" t="s">
-        <v>755</v>
+        <v>843</v>
       </c>
       <c r="I1" t="s">
-        <v>756</v>
+        <v>844</v>
       </c>
       <c r="J1" t="s">
-        <v>757</v>
+        <v>845</v>
       </c>
       <c r="K1" t="s">
-        <v>758</v>
+        <v>846</v>
       </c>
       <c r="L1" t="s">
-        <v>759</v>
+        <v>847</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>760</v>
+        <v>848</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3606,7 +3952,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>761</v>
+        <v>849</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3644,7 +3990,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>762</v>
+        <v>850</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3682,7 +4028,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>763</v>
+        <v>851</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3720,7 +4066,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>764</v>
+        <v>852</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3758,7 +4104,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>765</v>
+        <v>853</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3796,7 +4142,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>766</v>
+        <v>854</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3834,7 +4180,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>767</v>
+        <v>855</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3872,7 +4218,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>768</v>
+        <v>856</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3910,7 +4256,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>769</v>
+        <v>857</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3948,7 +4294,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>770</v>
+        <v>858</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3986,7 +4332,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>771</v>
+        <v>859</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4024,7 +4370,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>772</v>
+        <v>860</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4062,7 +4408,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>773</v>
+        <v>861</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4100,7 +4446,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>774</v>
+        <v>862</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4138,7 +4484,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>775</v>
+        <v>863</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4176,7 +4522,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>776</v>
+        <v>864</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4214,7 +4560,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>777</v>
+        <v>865</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4252,7 +4598,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>778</v>
+        <v>866</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -4290,7 +4636,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>779</v>
+        <v>867</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4328,7 +4674,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>780</v>
+        <v>868</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4366,7 +4712,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>781</v>
+        <v>869</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4404,7 +4750,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>782</v>
+        <v>870</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4442,7 +4788,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>783</v>
+        <v>871</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4480,7 +4826,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>784</v>
+        <v>872</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4518,7 +4864,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>785</v>
+        <v>873</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4556,7 +4902,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>786</v>
+        <v>874</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4594,7 +4940,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>787</v>
+        <v>875</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4632,7 +4978,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>788</v>
+        <v>876</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4670,7 +5016,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>789</v>
+        <v>877</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4708,7 +5054,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>790</v>
+        <v>878</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4746,7 +5092,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>791</v>
+        <v>879</v>
       </c>
       <c r="B33">
         <v>1</v>

--- a/docs/reference/example.xlsx
+++ b/docs/reference/example.xlsx
@@ -15,7 +15,183 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="924">
+  <si>
+    <t>_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cyl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qsec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mazda RX4 Wag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Datsun 710</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet 4 Drive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hornet Sportabout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valiant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duster 360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 240D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 280C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Merc 450SLC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cadillac Fleetwood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lincoln Continental</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chrysler Imperial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat 128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Honda Civic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corolla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toyota Corona</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dodge Challenger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMC Javelin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camaro Z28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pontiac Firebird</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiat X1-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Porsche 914-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lotus Europa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ford Pantera L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ferrari Dino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maserati Bora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volvo 142E</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>_row</t>
     <phoneticPr fontId="1"/>
@@ -3876,45 +4052,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>836</v>
+        <v>880</v>
       </c>
       <c r="B1" t="s">
-        <v>837</v>
+        <v>881</v>
       </c>
       <c r="C1" t="s">
-        <v>838</v>
+        <v>882</v>
       </c>
       <c r="D1" t="s">
-        <v>839</v>
+        <v>883</v>
       </c>
       <c r="E1" t="s">
-        <v>840</v>
+        <v>884</v>
       </c>
       <c r="F1" t="s">
-        <v>841</v>
+        <v>885</v>
       </c>
       <c r="G1" t="s">
-        <v>842</v>
+        <v>886</v>
       </c>
       <c r="H1" t="s">
-        <v>843</v>
+        <v>887</v>
       </c>
       <c r="I1" t="s">
-        <v>844</v>
+        <v>888</v>
       </c>
       <c r="J1" t="s">
-        <v>845</v>
+        <v>889</v>
       </c>
       <c r="K1" t="s">
-        <v>846</v>
+        <v>890</v>
       </c>
       <c r="L1" t="s">
-        <v>847</v>
+        <v>891</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>848</v>
+        <v>892</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3952,7 +4128,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>849</v>
+        <v>893</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3990,7 +4166,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>850</v>
+        <v>894</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4028,7 +4204,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>851</v>
+        <v>895</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4066,7 +4242,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>852</v>
+        <v>896</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4104,7 +4280,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>853</v>
+        <v>897</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4142,7 +4318,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>854</v>
+        <v>898</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4180,7 +4356,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>855</v>
+        <v>899</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4218,7 +4394,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>856</v>
+        <v>900</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4256,7 +4432,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>857</v>
+        <v>901</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4294,7 +4470,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>858</v>
+        <v>902</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4332,7 +4508,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>859</v>
+        <v>903</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4370,7 +4546,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>860</v>
+        <v>904</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4408,7 +4584,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>861</v>
+        <v>905</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4446,7 +4622,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>862</v>
+        <v>906</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4484,7 +4660,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>863</v>
+        <v>907</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4522,7 +4698,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>864</v>
+        <v>908</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4560,7 +4736,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>865</v>
+        <v>909</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4598,7 +4774,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>866</v>
+        <v>910</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -4636,7 +4812,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>867</v>
+        <v>911</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4674,7 +4850,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>868</v>
+        <v>912</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4712,7 +4888,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>869</v>
+        <v>913</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4750,7 +4926,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>870</v>
+        <v>914</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4788,7 +4964,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>871</v>
+        <v>915</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4826,7 +5002,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>872</v>
+        <v>916</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4864,7 +5040,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>873</v>
+        <v>917</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4902,7 +5078,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>874</v>
+        <v>918</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4940,7 +5116,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>875</v>
+        <v>919</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4978,7 +5154,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>876</v>
+        <v>920</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -5016,7 +5192,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>877</v>
+        <v>921</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -5054,7 +5230,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>878</v>
+        <v>922</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -5092,7 +5268,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>879</v>
+        <v>923</v>
       </c>
       <c r="B33">
         <v>1</v>
